--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706583.4460084744</v>
+        <v>-709118.4168843299</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>89.45423727436555</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>129.6194020613859</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.0161479172571</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>28.18795678412369</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>256.7273523546841</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>202.7951375641645</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,16 +1057,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>94.01548028509077</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>67.07783821739562</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>244.2914536498758</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>68.60693069714226</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.451579104186107</v>
+        <v>118.7312710490958</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>39.5212963318317</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>4.665762779849952</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>220.8531394779004</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292267</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>60.86846495359764</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.96996784160087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>33.26272630933957</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>207.7302028825739</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>173.9610973318237</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>19.86507844888343</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>20.43112068613243</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>13.74238375877687</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>35.8864194913568</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>245.8640357413583</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308926</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652687</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855438</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.909787855438</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D2" t="n">
-        <v>953.6440892486874</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E2" t="n">
-        <v>567.8558366504431</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>156.8699318608355</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>156.8699318608355</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3084.386464185371</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>3084.386464185371</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>3084.386464185371</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>1877.76499734219</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>1877.76499734219</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>1877.76499734219</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3120.607538187651</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>3120.607538187651</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>2831.504671313294</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>2576.820183107408</v>
       </c>
       <c r="W4" t="n">
-        <v>1355.034509387922</v>
+        <v>2287.403013070447</v>
       </c>
       <c r="X4" t="n">
-        <v>1127.044958489905</v>
+        <v>2059.41346217243</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>2059.41346217243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.419770374778</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>736.8185791558153</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>325.8326743662078</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.09759726723</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997115</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736035</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.019610438899</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.6952191369613</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090544</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1832.329416487391</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1543.226549613035</v>
       </c>
       <c r="V7" t="n">
-        <v>1378.750404902179</v>
+        <v>1543.226549613035</v>
       </c>
       <c r="W7" t="n">
-        <v>1089.333234865218</v>
+        <v>1253.809379576074</v>
       </c>
       <c r="X7" t="n">
-        <v>861.3436839672011</v>
+        <v>1025.819828678057</v>
       </c>
       <c r="Y7" t="n">
-        <v>861.3436839672011</v>
+        <v>1025.819828678057</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416651</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.660964416651</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3256.305891612057</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993391</v>
+        <v>3256.305891612057</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>3002.775414885893</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923657</v>
+        <v>2671.712527542323</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653543</v>
+        <v>2318.943872272208</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392463</v>
+        <v>1945.478114011128</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416651</v>
+        <v>1555.338782035317</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1924.818205559011</v>
+        <v>1807.363971271224</v>
       </c>
       <c r="T10" t="n">
-        <v>1924.818205559011</v>
+        <v>1585.59735584075</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.715338684655</v>
+        <v>1585.59735584075</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.030850478768</v>
+        <v>1585.59735584075</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.613680441807</v>
+        <v>1296.18018580379</v>
       </c>
       <c r="X10" t="n">
-        <v>1091.613680441807</v>
+        <v>1068.190634905772</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>847.3980557622424</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277359</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>215.8238677453428</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>215.8238677453428</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.250191883442</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2259.395357538347</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2259.395357538347</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,28 +5264,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687974</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.377101239902</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.692613034015</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.275442997055</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>982.2858920990371</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990371</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.580456911438</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835312</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.228921741678</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5768,31 +5768,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="T22" t="n">
-        <v>2230.509535791388</v>
+        <v>2160.315914855601</v>
       </c>
       <c r="U22" t="n">
-        <v>1941.434309135586</v>
+        <v>1871.240688199798</v>
       </c>
       <c r="V22" t="n">
-        <v>1686.749820929699</v>
+        <v>1616.556199993911</v>
       </c>
       <c r="W22" t="n">
-        <v>1397.332650892738</v>
+        <v>1327.139029956951</v>
       </c>
       <c r="X22" t="n">
-        <v>1169.343099994721</v>
+        <v>1099.149479058933</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.5505208511905</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438167</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380895</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101826</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>422.7903292978468</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>422.7903292978468</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>422.7903292978468</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>255.5942300127268</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>113.8823988549249</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683292</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400721</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277364</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277364</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="F31" t="n">
-        <v>363.7369613277364</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="G31" t="n">
-        <v>196.5408620426163</v>
+        <v>249.40968992171</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>107.6978587639081</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2410.714175003133</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2410.714175003133</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,13 +7011,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7169,16 +7169,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345486</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384031</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7345,13 +7345,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7786,13 +7786,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,34 +7801,34 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>205.1535271129549</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>121.3757698975161</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,22 +22705,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>160.3201265506535</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,10 +22753,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>75.75287741418482</v>
       </c>
       <c r="T4" t="n">
-        <v>127.0194685392034</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>258.3350415524673</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229322</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>126.0028419604371</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>61.70948393027174</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.513749910243533e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>65.33133491134373</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>191.2691783702303</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>205.6146855104939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>184.1427240179487</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>10.85445046952088</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>112.2233770574204</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>61.40075786968208</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>4.845153664065123</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>119.8635921600914</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>67.52345255978867</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>30.48882721876485</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1180121.672990707</v>
+        <v>1180121.672990706</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1180121.672990707</v>
+        <v>1180121.672990706</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254692</v>
+        <v>207271.1201254693</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
@@ -26320,10 +26320,10 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
+        <v>242143.9799070019</v>
+      </c>
+      <c r="F2" t="n">
         <v>242143.9799070018</v>
-      </c>
-      <c r="F2" t="n">
-        <v>242143.9799070019</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
@@ -26335,19 +26335,19 @@
         <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15465.61676588933</v>
+        <v>15465.61676588946</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813259</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26436,25 +26436,25 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="J4" t="n">
-        <v>10557.08828678113</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10557.08828678112</v>
-      </c>
       <c r="L4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987465</v>
+        <v>18547.94754987471</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="P4" t="n">
         <v>18547.94754987468</v>
@@ -26491,13 +26491,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1244873.182929406</v>
+        <v>-1245198.528019688</v>
       </c>
       <c r="C6" t="n">
         <v>48634.4673397592</v>
       </c>
       <c r="D6" t="n">
-        <v>48634.46733975949</v>
+        <v>48634.46733975921</v>
       </c>
       <c r="E6" t="n">
-        <v>-194948.1000110421</v>
+        <v>-194982.8379364773</v>
       </c>
       <c r="F6" t="n">
-        <v>130464.3617963135</v>
+        <v>130429.6238708778</v>
       </c>
       <c r="G6" t="n">
-        <v>130464.3617963135</v>
+        <v>130429.6238708778</v>
       </c>
       <c r="H6" t="n">
-        <v>130464.3617963135</v>
+        <v>130429.6238708778</v>
       </c>
       <c r="I6" t="n">
-        <v>130464.3617963135</v>
+        <v>130429.6238708778</v>
       </c>
       <c r="J6" t="n">
-        <v>-87066.840600964</v>
+        <v>-87101.57852639969</v>
       </c>
       <c r="K6" t="n">
-        <v>130464.3617963135</v>
+        <v>130429.6238708778</v>
       </c>
       <c r="L6" t="n">
-        <v>130464.3617963137</v>
+        <v>130429.6238708779</v>
       </c>
       <c r="M6" t="n">
-        <v>20117.72162635108</v>
+        <v>20117.72162635106</v>
       </c>
       <c r="N6" t="n">
-        <v>124600.467555495</v>
+        <v>124600.4675554947</v>
       </c>
       <c r="O6" t="n">
         <v>124600.4675554949</v>
       </c>
       <c r="P6" t="n">
-        <v>124600.4675554952</v>
+        <v>124600.4675554949</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.926694547974364</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>92.52948073696581</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>154.1943732987693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27667,13 +27667,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>183.4428010918891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>125.5334689910784</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>185.0598051064324</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>110.3915879708072</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>40.58083109103357</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>187.3174462272558</v>
+        <v>71.03775428234609</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>144.237359508534</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>242.232209776813</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,19 +33263,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,19 +33500,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,19 +33737,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>527.4636460127482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>6.395920534175052</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899036</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>103.6778299969388</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38175,16 +38175,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
